--- a/data/pca/factorExposure/factorExposure_2019-03-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1206160529716686</v>
+        <v>-0.07533071114793408</v>
       </c>
       <c r="C2">
-        <v>-0.01115996979605043</v>
+        <v>0.03506658271921805</v>
       </c>
       <c r="D2">
-        <v>-0.05120100799513012</v>
+        <v>0.007472936163382421</v>
       </c>
       <c r="E2">
-        <v>0.125854307777318</v>
+        <v>0.04250007741766768</v>
       </c>
       <c r="F2">
-        <v>0.09663776621781502</v>
+        <v>0.1411803625138146</v>
       </c>
       <c r="G2">
-        <v>0.05755176893284052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1067813441613753</v>
+      </c>
+      <c r="H2">
+        <v>0.0637405203675908</v>
+      </c>
+      <c r="I2">
+        <v>0.03419416918696054</v>
+      </c>
+      <c r="J2">
+        <v>0.06734067467900116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2145441744936332</v>
+        <v>-0.1694084956704661</v>
       </c>
       <c r="C3">
-        <v>-0.1553510161053033</v>
+        <v>0.08638979866467082</v>
       </c>
       <c r="D3">
-        <v>0.03289073203400148</v>
+        <v>-0.04970754283008623</v>
       </c>
       <c r="E3">
-        <v>0.3300917780440946</v>
+        <v>-0.002237371840341875</v>
       </c>
       <c r="F3">
-        <v>-0.009499473944163483</v>
+        <v>0.3700350967244985</v>
       </c>
       <c r="G3">
-        <v>0.07694627812379631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.09047218734653202</v>
+      </c>
+      <c r="H3">
+        <v>0.2824948684578813</v>
+      </c>
+      <c r="I3">
+        <v>0.2040325796836751</v>
+      </c>
+      <c r="J3">
+        <v>0.2453446653473149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09518793253213252</v>
+        <v>-0.07554172580152448</v>
       </c>
       <c r="C4">
-        <v>-0.0443118909213619</v>
+        <v>0.03149959709352754</v>
       </c>
       <c r="D4">
-        <v>-0.02575857793683164</v>
+        <v>-0.03207382002721096</v>
       </c>
       <c r="E4">
-        <v>0.07349737484210218</v>
+        <v>0.03936826433280046</v>
       </c>
       <c r="F4">
-        <v>0.02147227882173513</v>
+        <v>0.0808775129126655</v>
       </c>
       <c r="G4">
-        <v>0.03528380690045154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04506780592172704</v>
+      </c>
+      <c r="H4">
+        <v>0.02372083926197325</v>
+      </c>
+      <c r="I4">
+        <v>0.03212629881650692</v>
+      </c>
+      <c r="J4">
+        <v>0.05579628812015079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01809576682448149</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008562795474361449</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.01147691269010384</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005648421367785853</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00433501041461399</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02100616615242808</v>
+      </c>
+      <c r="H6">
+        <v>-0.002235782329211369</v>
+      </c>
+      <c r="I6">
+        <v>-0.01545262150162403</v>
+      </c>
+      <c r="J6">
+        <v>0.001607381238898913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04211920910748502</v>
+        <v>-0.03503380873321431</v>
       </c>
       <c r="C7">
-        <v>-0.01525943641803977</v>
+        <v>-0.002561131823582651</v>
       </c>
       <c r="D7">
-        <v>-0.03740521427956174</v>
+        <v>-0.03958606032694129</v>
       </c>
       <c r="E7">
-        <v>0.07548300421672412</v>
+        <v>0.02953206982943674</v>
       </c>
       <c r="F7">
-        <v>-0.0510792947997934</v>
+        <v>0.05422616155879617</v>
       </c>
       <c r="G7">
-        <v>-0.02104182723201681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006518805479748504</v>
+      </c>
+      <c r="H7">
+        <v>0.04605836278329313</v>
+      </c>
+      <c r="I7">
+        <v>0.002248273454664003</v>
+      </c>
+      <c r="J7">
+        <v>0.05315139556083417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04386085466291478</v>
+        <v>-0.03130342151565475</v>
       </c>
       <c r="C8">
-        <v>-0.05565217501609585</v>
+        <v>0.03764182900874727</v>
       </c>
       <c r="D8">
-        <v>-0.006898992604538489</v>
+        <v>-0.03545626692395632</v>
       </c>
       <c r="E8">
-        <v>0.07309626416157509</v>
+        <v>0.02003173448005906</v>
       </c>
       <c r="F8">
-        <v>-0.0001217884079502783</v>
+        <v>0.07168488961492669</v>
       </c>
       <c r="G8">
-        <v>0.01437970523270086</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02034039515929192</v>
+      </c>
+      <c r="H8">
+        <v>0.04362157606386063</v>
+      </c>
+      <c r="I8">
+        <v>0.03696053710589831</v>
+      </c>
+      <c r="J8">
+        <v>0.05868686196937764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0830709873292489</v>
+        <v>-0.061660296128156</v>
       </c>
       <c r="C9">
-        <v>-0.0409899606523137</v>
+        <v>0.02728368843915937</v>
       </c>
       <c r="D9">
-        <v>-0.03419974934764883</v>
+        <v>-0.03544809150543139</v>
       </c>
       <c r="E9">
-        <v>0.06076303442245886</v>
+        <v>0.03447219381257272</v>
       </c>
       <c r="F9">
-        <v>0.007480136257356703</v>
+        <v>0.08154913855074744</v>
       </c>
       <c r="G9">
-        <v>0.0465434492213152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04202458260364487</v>
+      </c>
+      <c r="H9">
+        <v>0.02231414245157895</v>
+      </c>
+      <c r="I9">
+        <v>0.01461013183586977</v>
+      </c>
+      <c r="J9">
+        <v>0.03363358365316619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.0174891564588911</v>
+        <v>-0.0261689939067929</v>
       </c>
       <c r="C10">
-        <v>0.15683390852993</v>
+        <v>-0.1300435984188786</v>
       </c>
       <c r="D10">
-        <v>0.03497724688927509</v>
+        <v>0.08371453416844313</v>
       </c>
       <c r="E10">
-        <v>0.07050642207631692</v>
+        <v>-0.03326032599232327</v>
       </c>
       <c r="F10">
-        <v>0.01521351796258513</v>
+        <v>0.06738867683385766</v>
       </c>
       <c r="G10">
-        <v>-0.008751678033981716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02310507193625138</v>
+      </c>
+      <c r="H10">
+        <v>0.00436780256623042</v>
+      </c>
+      <c r="I10">
+        <v>0.1108206234982896</v>
+      </c>
+      <c r="J10">
+        <v>-0.01011326823714024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05850285395946043</v>
+        <v>-0.05094332655931397</v>
       </c>
       <c r="C11">
-        <v>-0.01566576440181884</v>
+        <v>0.02765256674309728</v>
       </c>
       <c r="D11">
-        <v>0.005787817410866496</v>
+        <v>-0.006882472423748043</v>
       </c>
       <c r="E11">
-        <v>0.04414141009822078</v>
+        <v>0.009311082558533119</v>
       </c>
       <c r="F11">
-        <v>0.006585984568332924</v>
+        <v>0.04007369382156341</v>
       </c>
       <c r="G11">
-        <v>-0.01143873235733872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006581434134568087</v>
+      </c>
+      <c r="H11">
+        <v>0.00223352594438416</v>
+      </c>
+      <c r="I11">
+        <v>-0.01003649410983176</v>
+      </c>
+      <c r="J11">
+        <v>0.0444967571570622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04486698389031459</v>
+        <v>-0.04795450582063075</v>
       </c>
       <c r="C12">
-        <v>-0.01836981531797435</v>
+        <v>0.0192303141582481</v>
       </c>
       <c r="D12">
-        <v>0.002250197317288807</v>
+        <v>-0.01467888386314183</v>
       </c>
       <c r="E12">
-        <v>0.03055247994596232</v>
+        <v>0.01134212571997805</v>
       </c>
       <c r="F12">
-        <v>-0.009632603767687023</v>
+        <v>0.01525524729267335</v>
       </c>
       <c r="G12">
-        <v>0.001824606983273457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002705544191085905</v>
+      </c>
+      <c r="H12">
+        <v>0.004002096478954465</v>
+      </c>
+      <c r="I12">
+        <v>-0.006626063799504387</v>
+      </c>
+      <c r="J12">
+        <v>0.03031504420095165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06268090998068442</v>
+        <v>-0.04235351805917256</v>
       </c>
       <c r="C13">
-        <v>-0.02941604436091036</v>
+        <v>0.03049331043702124</v>
       </c>
       <c r="D13">
-        <v>0.006025294802641278</v>
+        <v>0.000933505543647596</v>
       </c>
       <c r="E13">
-        <v>0.1119907575147179</v>
+        <v>0.01013432357215481</v>
       </c>
       <c r="F13">
-        <v>0.01327795787747449</v>
+        <v>0.1054750100447173</v>
       </c>
       <c r="G13">
-        <v>0.003396504497215786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02241165450668806</v>
+      </c>
+      <c r="H13">
+        <v>0.04668846271295782</v>
+      </c>
+      <c r="I13">
+        <v>0.01042958141326005</v>
+      </c>
+      <c r="J13">
+        <v>0.05735965896845051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03313850351918417</v>
+        <v>-0.02818405790030578</v>
       </c>
       <c r="C14">
-        <v>-0.02116566900617575</v>
+        <v>0.01433020971329761</v>
       </c>
       <c r="D14">
-        <v>-0.02852815981549296</v>
+        <v>-0.01420663089354728</v>
       </c>
       <c r="E14">
-        <v>0.03230650424945045</v>
+        <v>0.02636212372663094</v>
       </c>
       <c r="F14">
-        <v>0.0169180550239642</v>
+        <v>0.04019421092163704</v>
       </c>
       <c r="G14">
-        <v>-0.01980275678393259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02793345976578717</v>
+      </c>
+      <c r="H14">
+        <v>0.05234468665878982</v>
+      </c>
+      <c r="I14">
+        <v>0.008719648541843501</v>
+      </c>
+      <c r="J14">
+        <v>0.01256954238424931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.0475659094002172</v>
+        <v>-0.04546198842434027</v>
       </c>
       <c r="C16">
-        <v>-0.02880216553743264</v>
+        <v>0.03112586757033162</v>
       </c>
       <c r="D16">
-        <v>0.009102393454248639</v>
+        <v>-0.01571171580123119</v>
       </c>
       <c r="E16">
-        <v>0.03384642610451942</v>
+        <v>0.006254545307072595</v>
       </c>
       <c r="F16">
-        <v>-0.009250127005282839</v>
+        <v>0.03394796434063435</v>
       </c>
       <c r="G16">
-        <v>-0.008174947246669711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005779365083023122</v>
+      </c>
+      <c r="H16">
+        <v>0.008636448956766653</v>
+      </c>
+      <c r="I16">
+        <v>-0.00848198624528867</v>
+      </c>
+      <c r="J16">
+        <v>0.03824053914443488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05361979899014652</v>
+        <v>-0.04908267178176162</v>
       </c>
       <c r="C19">
-        <v>-0.04617351718211214</v>
+        <v>0.03994470243434717</v>
       </c>
       <c r="D19">
-        <v>-0.0002277226897771799</v>
+        <v>-0.02081771883203777</v>
       </c>
       <c r="E19">
-        <v>0.07760091614485684</v>
+        <v>0.02066009820400986</v>
       </c>
       <c r="F19">
-        <v>-0.01187431058295456</v>
+        <v>0.08011438146047357</v>
       </c>
       <c r="G19">
-        <v>-0.03054474057136435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009935242671611466</v>
+      </c>
+      <c r="H19">
+        <v>0.0811550430854269</v>
+      </c>
+      <c r="I19">
+        <v>0.03310122513895047</v>
+      </c>
+      <c r="J19">
+        <v>0.05001092379490081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03378517532465195</v>
+        <v>-0.01851226824483695</v>
       </c>
       <c r="C20">
-        <v>-0.04380387936600828</v>
+        <v>0.02301371201755293</v>
       </c>
       <c r="D20">
-        <v>-0.01364615547816456</v>
+        <v>-0.02093146026482281</v>
       </c>
       <c r="E20">
-        <v>0.06826561321554904</v>
+        <v>0.01940290531468782</v>
       </c>
       <c r="F20">
-        <v>-0.01093100642640552</v>
+        <v>0.06575655043950833</v>
       </c>
       <c r="G20">
-        <v>-0.009590869975949838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01313832915288774</v>
+      </c>
+      <c r="H20">
+        <v>0.07064812902095334</v>
+      </c>
+      <c r="I20">
+        <v>0.02629633857997936</v>
+      </c>
+      <c r="J20">
+        <v>0.0746138762014283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03765933147355033</v>
+        <v>-0.02687807236201973</v>
       </c>
       <c r="C21">
-        <v>-0.03353644547153391</v>
+        <v>0.02219949514446499</v>
       </c>
       <c r="D21">
-        <v>-0.0006272090157697415</v>
+        <v>-0.02824939855956146</v>
       </c>
       <c r="E21">
-        <v>0.1075044454384005</v>
+        <v>0.008511087193216632</v>
       </c>
       <c r="F21">
-        <v>0.04353634820456299</v>
+        <v>0.07848215689559798</v>
       </c>
       <c r="G21">
-        <v>0.01652979187667181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03593599447253198</v>
+      </c>
+      <c r="H21">
+        <v>0.02475595459342827</v>
+      </c>
+      <c r="I21">
+        <v>-0.01180328971693003</v>
+      </c>
+      <c r="J21">
+        <v>0.02587155165337952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05104283366377659</v>
+        <v>-0.04422663407289613</v>
       </c>
       <c r="C24">
-        <v>-0.02345942195534267</v>
+        <v>0.02181968863634976</v>
       </c>
       <c r="D24">
-        <v>0.0005926218121833648</v>
+        <v>-0.01030378094167228</v>
       </c>
       <c r="E24">
-        <v>0.04595602317748006</v>
+        <v>0.01147534099598227</v>
       </c>
       <c r="F24">
-        <v>-0.009915726054367956</v>
+        <v>0.04085619309425864</v>
       </c>
       <c r="G24">
-        <v>0.0005658601276473443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004728094548761318</v>
+      </c>
+      <c r="H24">
+        <v>0.007489316096089837</v>
+      </c>
+      <c r="I24">
+        <v>-0.006557258047928752</v>
+      </c>
+      <c r="J24">
+        <v>0.04339491932705802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05204165145734894</v>
+        <v>-0.04737096804039614</v>
       </c>
       <c r="C25">
-        <v>-0.01132980597443126</v>
+        <v>0.02057378131056965</v>
       </c>
       <c r="D25">
-        <v>0.003417972186358682</v>
+        <v>-0.008179552322943349</v>
       </c>
       <c r="E25">
-        <v>0.04295678124195985</v>
+        <v>0.009418748026556763</v>
       </c>
       <c r="F25">
-        <v>0.005247634678407445</v>
+        <v>0.04409735285916458</v>
       </c>
       <c r="G25">
-        <v>-0.0008118432861579735</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004719147840424072</v>
+      </c>
+      <c r="H25">
+        <v>-0.000933961984197563</v>
+      </c>
+      <c r="I25">
+        <v>-0.01180040355830103</v>
+      </c>
+      <c r="J25">
+        <v>0.03720013574965877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01884447289764531</v>
+        <v>-0.01668511952290863</v>
       </c>
       <c r="C26">
-        <v>-0.02930862245427335</v>
+        <v>0.02288558740722656</v>
       </c>
       <c r="D26">
-        <v>-0.005322119897179868</v>
+        <v>-0.008007622371338259</v>
       </c>
       <c r="E26">
-        <v>0.03966575676165074</v>
+        <v>0.0007973371769073409</v>
       </c>
       <c r="F26">
-        <v>0.02536927478270817</v>
+        <v>0.0467574371290201</v>
       </c>
       <c r="G26">
-        <v>-0.02015295965347504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02153602937045368</v>
+      </c>
+      <c r="H26">
+        <v>0.03332658443500414</v>
+      </c>
+      <c r="I26">
+        <v>-0.005498447111684412</v>
+      </c>
+      <c r="J26">
+        <v>0.03507032066549218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1136392665355821</v>
+        <v>-0.07631094083104244</v>
       </c>
       <c r="C27">
-        <v>-0.03503473067606375</v>
+        <v>0.02233698938669382</v>
       </c>
       <c r="D27">
-        <v>-0.02308126873161101</v>
+        <v>-0.01632597461105565</v>
       </c>
       <c r="E27">
-        <v>0.09816641705081687</v>
+        <v>0.0355627800693029</v>
       </c>
       <c r="F27">
-        <v>0.005347377478384534</v>
+        <v>0.06823231777005444</v>
       </c>
       <c r="G27">
-        <v>0.01250191820252139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01831501520452191</v>
+      </c>
+      <c r="H27">
+        <v>0.01394662580686409</v>
+      </c>
+      <c r="I27">
+        <v>0.02483360173799752</v>
+      </c>
+      <c r="J27">
+        <v>0.0388963911904229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01439252361569256</v>
+        <v>-0.04028637220290943</v>
       </c>
       <c r="C28">
-        <v>0.2399219241162312</v>
+        <v>-0.2037372456371168</v>
       </c>
       <c r="D28">
-        <v>0.03818308103350938</v>
+        <v>0.1188475410648489</v>
       </c>
       <c r="E28">
-        <v>0.04841225200025816</v>
+        <v>-0.05048383036313102</v>
       </c>
       <c r="F28">
-        <v>0.02919527906303474</v>
+        <v>0.05798215035834543</v>
       </c>
       <c r="G28">
-        <v>0.004174992694731417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02411594065807924</v>
+      </c>
+      <c r="H28">
+        <v>-0.001547442023090164</v>
+      </c>
+      <c r="I28">
+        <v>0.1608171092423169</v>
+      </c>
+      <c r="J28">
+        <v>-0.007492174730803297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02262712164720003</v>
+        <v>-0.02292892264411078</v>
       </c>
       <c r="C29">
-        <v>-0.02446481523569359</v>
+        <v>0.01232525484293351</v>
       </c>
       <c r="D29">
-        <v>-0.03048115365146605</v>
+        <v>-0.01815779642435417</v>
       </c>
       <c r="E29">
-        <v>0.03288145571922187</v>
+        <v>0.02630295022118522</v>
       </c>
       <c r="F29">
-        <v>0.01597923444694904</v>
+        <v>0.03465631831714278</v>
       </c>
       <c r="G29">
-        <v>-0.007425160633235467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02900322303813593</v>
+      </c>
+      <c r="H29">
+        <v>0.05013505533117735</v>
+      </c>
+      <c r="I29">
+        <v>0.003127492718819486</v>
+      </c>
+      <c r="J29">
+        <v>0.006344407819950745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1148050984459492</v>
+        <v>-0.09211085696485809</v>
       </c>
       <c r="C30">
-        <v>-0.02204498087362756</v>
+        <v>0.05903339537188687</v>
       </c>
       <c r="D30">
-        <v>-0.02759772795274804</v>
+        <v>0.01156544924404751</v>
       </c>
       <c r="E30">
-        <v>0.1101081524660371</v>
+        <v>0.0327264149606903</v>
       </c>
       <c r="F30">
-        <v>-0.005860701073106326</v>
+        <v>0.1027263687823127</v>
       </c>
       <c r="G30">
-        <v>-0.02085504820509322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01344771516484718</v>
+      </c>
+      <c r="H30">
+        <v>0.02105766652471793</v>
+      </c>
+      <c r="I30">
+        <v>-0.01339230098567933</v>
+      </c>
+      <c r="J30">
+        <v>0.03196699659905201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.0663063330468099</v>
+        <v>-0.06282998553182215</v>
       </c>
       <c r="C31">
-        <v>-0.01598752388249069</v>
+        <v>0.02313927614201306</v>
       </c>
       <c r="D31">
-        <v>-0.01794000700986829</v>
+        <v>0.00099051349969472</v>
       </c>
       <c r="E31">
-        <v>-0.01764974562080845</v>
+        <v>0.02269420928413513</v>
       </c>
       <c r="F31">
-        <v>0.02713470550167845</v>
+        <v>0.001810174504721311</v>
       </c>
       <c r="G31">
-        <v>-0.04935167178117746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04074014952861369</v>
+      </c>
+      <c r="H31">
+        <v>0.031177550729538</v>
+      </c>
+      <c r="I31">
+        <v>0.01412935273721647</v>
+      </c>
+      <c r="J31">
+        <v>0.01060227238110567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06386894983832532</v>
+        <v>-0.0453071167154239</v>
       </c>
       <c r="C32">
-        <v>-0.04062801266483237</v>
+        <v>0.0375795749172823</v>
       </c>
       <c r="D32">
-        <v>-0.01346966624012569</v>
+        <v>-0.03783762537486074</v>
       </c>
       <c r="E32">
-        <v>0.106660198331167</v>
+        <v>0.03139791292651994</v>
       </c>
       <c r="F32">
-        <v>-0.00681540327697226</v>
+        <v>0.08684730124886672</v>
       </c>
       <c r="G32">
-        <v>-0.0188849485742196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01372575191401617</v>
+      </c>
+      <c r="H32">
+        <v>0.03687668832969745</v>
+      </c>
+      <c r="I32">
+        <v>0.02244058044679251</v>
+      </c>
+      <c r="J32">
+        <v>0.04521309227916722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06770422619372855</v>
+        <v>-0.0577561871307619</v>
       </c>
       <c r="C33">
-        <v>-0.04719627357568859</v>
+        <v>0.0540577388745393</v>
       </c>
       <c r="D33">
-        <v>-0.01232680519326</v>
+        <v>-0.008471595797703428</v>
       </c>
       <c r="E33">
-        <v>0.07697124648287823</v>
+        <v>0.01325236481804853</v>
       </c>
       <c r="F33">
-        <v>0.04612771905067911</v>
+        <v>0.07638027011196774</v>
       </c>
       <c r="G33">
-        <v>-0.002901561574514762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03541845067665398</v>
+      </c>
+      <c r="H33">
+        <v>0.04008682044044878</v>
+      </c>
+      <c r="I33">
+        <v>-0.008889970856937761</v>
+      </c>
+      <c r="J33">
+        <v>0.04980455016613846</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04833108527177982</v>
+        <v>-0.04606162179900555</v>
       </c>
       <c r="C34">
-        <v>-0.02201479803969006</v>
+        <v>0.02513938279869303</v>
       </c>
       <c r="D34">
-        <v>-0.002259685474547095</v>
+        <v>-0.01775162444584606</v>
       </c>
       <c r="E34">
-        <v>0.02826877268166762</v>
+        <v>0.01670397850451591</v>
       </c>
       <c r="F34">
-        <v>-0.007131719446335846</v>
+        <v>0.03092787978666149</v>
       </c>
       <c r="G34">
-        <v>-0.006326398052181137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0001709998856922177</v>
+      </c>
+      <c r="H34">
+        <v>0.01087034573533198</v>
+      </c>
+      <c r="I34">
+        <v>-0.006119169206139361</v>
+      </c>
+      <c r="J34">
+        <v>0.03394280681687847</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01266567743205082</v>
+        <v>-0.01508137574673865</v>
       </c>
       <c r="C36">
-        <v>-0.0008974412099739354</v>
+        <v>0.0002592855043672923</v>
       </c>
       <c r="D36">
-        <v>-0.007903009506138179</v>
+        <v>-0.005530421869818265</v>
       </c>
       <c r="E36">
-        <v>0.0244866654294921</v>
+        <v>0.01056484133911224</v>
       </c>
       <c r="F36">
-        <v>0.01235533259425458</v>
+        <v>0.0272238447078102</v>
       </c>
       <c r="G36">
-        <v>-0.01315075311234267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02339408406882604</v>
+      </c>
+      <c r="H36">
+        <v>0.02891943136652334</v>
+      </c>
+      <c r="I36">
+        <v>-0.005130468391679943</v>
+      </c>
+      <c r="J36">
+        <v>0.0001233878113178184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0510755725200053</v>
+        <v>-0.03595806289743765</v>
       </c>
       <c r="C38">
-        <v>-0.01675969643840025</v>
+        <v>0.009421953096150683</v>
       </c>
       <c r="D38">
-        <v>-0.02563719283065274</v>
+        <v>-0.008090311334916873</v>
       </c>
       <c r="E38">
-        <v>0.02664043174130491</v>
+        <v>0.01405126612488014</v>
       </c>
       <c r="F38">
-        <v>-0.004927405976478541</v>
+        <v>0.0474727676307701</v>
       </c>
       <c r="G38">
-        <v>0.0258117516980675</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02780351641771871</v>
+      </c>
+      <c r="H38">
+        <v>0.0153713175561967</v>
+      </c>
+      <c r="I38">
+        <v>-0.01194509694618505</v>
+      </c>
+      <c r="J38">
+        <v>-0.0007085551029651903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07392955575384952</v>
+        <v>-0.05836691839646464</v>
       </c>
       <c r="C39">
-        <v>-0.02082378647886067</v>
+        <v>0.03984960743222719</v>
       </c>
       <c r="D39">
-        <v>-0.004277445321362308</v>
+        <v>-0.01560908874889627</v>
       </c>
       <c r="E39">
-        <v>0.04355028226921828</v>
+        <v>0.01808184572944842</v>
       </c>
       <c r="F39">
-        <v>0.01321085042779472</v>
+        <v>0.05499196588126472</v>
       </c>
       <c r="G39">
-        <v>0.001815879974573907</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0169063009083767</v>
+      </c>
+      <c r="H39">
+        <v>0.00176737686054214</v>
+      </c>
+      <c r="I39">
+        <v>-0.02949450063766159</v>
+      </c>
+      <c r="J39">
+        <v>0.04775141654989423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07751983388357601</v>
+        <v>-0.05753407260235462</v>
       </c>
       <c r="C40">
-        <v>-0.04523922519879714</v>
+        <v>0.04625753577082409</v>
       </c>
       <c r="D40">
-        <v>-0.01044285176542948</v>
+        <v>-0.001311307012942024</v>
       </c>
       <c r="E40">
-        <v>0.1075384221445023</v>
+        <v>0.02539842003309186</v>
       </c>
       <c r="F40">
-        <v>0.01714395794932746</v>
+        <v>0.09485816888069336</v>
       </c>
       <c r="G40">
-        <v>0.02742858144662966</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02351087139659561</v>
+      </c>
+      <c r="H40">
+        <v>0.05267009381198295</v>
+      </c>
+      <c r="I40">
+        <v>0.01971001371160581</v>
+      </c>
+      <c r="J40">
+        <v>0.1155826883341294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.001845462348447053</v>
+        <v>-0.003031791510624324</v>
       </c>
       <c r="C41">
-        <v>-0.02183458960442104</v>
+        <v>0.01224829679312923</v>
       </c>
       <c r="D41">
-        <v>-0.02819403584545798</v>
+        <v>-0.007878024732462255</v>
       </c>
       <c r="E41">
-        <v>0.01249088624937824</v>
+        <v>0.009635099854388629</v>
       </c>
       <c r="F41">
-        <v>0.03277443629536227</v>
+        <v>0.01408956289801076</v>
       </c>
       <c r="G41">
-        <v>-0.00856428164243991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03588418818914924</v>
+      </c>
+      <c r="H41">
+        <v>0.03075951031672339</v>
+      </c>
+      <c r="I41">
+        <v>0.02394130620725</v>
+      </c>
+      <c r="J41">
+        <v>0.007252644822484991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1363608755229662</v>
+        <v>-0.2297977737042324</v>
       </c>
       <c r="C42">
-        <v>-0.2416645706715903</v>
+        <v>0.2320447645891651</v>
       </c>
       <c r="D42">
-        <v>0.9179529354682685</v>
+        <v>-0.06700429870469654</v>
       </c>
       <c r="E42">
-        <v>-0.1022731130404322</v>
+        <v>-0.9158822732772591</v>
       </c>
       <c r="F42">
-        <v>0.006708298163326243</v>
+        <v>-0.1468264209477466</v>
       </c>
       <c r="G42">
-        <v>-0.1344171824820304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.002501282094826496</v>
+      </c>
+      <c r="H42">
+        <v>-0.002252080530332273</v>
+      </c>
+      <c r="I42">
+        <v>0.05055760470345867</v>
+      </c>
+      <c r="J42">
+        <v>0.02644527992156196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.003287222837900042</v>
+        <v>-0.006199038796055637</v>
       </c>
       <c r="C43">
-        <v>-0.02286937501345362</v>
+        <v>0.01450551971272971</v>
       </c>
       <c r="D43">
-        <v>-0.01959872684508568</v>
+        <v>-0.005973442512415435</v>
       </c>
       <c r="E43">
-        <v>0.03618804970392896</v>
+        <v>0.009730771836944973</v>
       </c>
       <c r="F43">
-        <v>0.01328224677876734</v>
+        <v>0.02855703136152736</v>
       </c>
       <c r="G43">
-        <v>-0.01731900116184155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0207746107495754</v>
+      </c>
+      <c r="H43">
+        <v>0.03032255776221697</v>
+      </c>
+      <c r="I43">
+        <v>0.01400197103915259</v>
+      </c>
+      <c r="J43">
+        <v>0.01656242755437527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04160766523312646</v>
+        <v>-0.0308094183640287</v>
       </c>
       <c r="C44">
-        <v>-0.05286731321649189</v>
+        <v>0.03724134156334061</v>
       </c>
       <c r="D44">
-        <v>-0.01679591854749794</v>
+        <v>-0.02290710901650247</v>
       </c>
       <c r="E44">
-        <v>0.1253955794971454</v>
+        <v>0.0111986127193784</v>
       </c>
       <c r="F44">
-        <v>0.08923350938306461</v>
+        <v>0.1212199651536476</v>
       </c>
       <c r="G44">
-        <v>-0.007199006193355503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0615275857544968</v>
+      </c>
+      <c r="H44">
+        <v>0.1037500679838659</v>
+      </c>
+      <c r="I44">
+        <v>0.02135514169478396</v>
+      </c>
+      <c r="J44">
+        <v>0.03185332240490742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02915185624316884</v>
+        <v>-0.02575746366953855</v>
       </c>
       <c r="C46">
-        <v>-0.0258520537882751</v>
+        <v>0.03168161811863599</v>
       </c>
       <c r="D46">
-        <v>-0.03289690587448568</v>
+        <v>-0.01531491818871542</v>
       </c>
       <c r="E46">
-        <v>0.03414441326435333</v>
+        <v>0.02960299427350038</v>
       </c>
       <c r="F46">
-        <v>0.03054878658852208</v>
+        <v>0.04739452408072563</v>
       </c>
       <c r="G46">
-        <v>-0.01463173271398524</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02573430267481297</v>
+      </c>
+      <c r="H46">
+        <v>0.05121030211806658</v>
+      </c>
+      <c r="I46">
+        <v>0.001068927560490048</v>
+      </c>
+      <c r="J46">
+        <v>0.01777124460065776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.09022520205953545</v>
+        <v>-0.09156140537673581</v>
       </c>
       <c r="C47">
-        <v>-0.01323094878274777</v>
+        <v>0.01565513417892552</v>
       </c>
       <c r="D47">
-        <v>-0.01527603080960771</v>
+        <v>-0.0003492795374106873</v>
       </c>
       <c r="E47">
-        <v>-0.02022708900833747</v>
+        <v>0.02517978777674331</v>
       </c>
       <c r="F47">
-        <v>0.01550642028431513</v>
+        <v>-0.011308517956016</v>
       </c>
       <c r="G47">
-        <v>-0.02157004047720878</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0405980778227642</v>
+      </c>
+      <c r="H47">
+        <v>0.05482083387949432</v>
+      </c>
+      <c r="I47">
+        <v>0.0230823044074097</v>
+      </c>
+      <c r="J47">
+        <v>0.02298112406526354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01812212635430907</v>
+        <v>-0.01892727413808169</v>
       </c>
       <c r="C48">
-        <v>-0.02399026727427317</v>
+        <v>0.01633130720419936</v>
       </c>
       <c r="D48">
-        <v>-0.01551142461372323</v>
+        <v>-0.01089615330599878</v>
       </c>
       <c r="E48">
-        <v>0.03139822259614691</v>
+        <v>0.01383479331328839</v>
       </c>
       <c r="F48">
-        <v>0.01020074010803637</v>
+        <v>0.03003075558019566</v>
       </c>
       <c r="G48">
-        <v>-0.003910959577566664</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01491022574609631</v>
+      </c>
+      <c r="H48">
+        <v>0.0215550418414455</v>
+      </c>
+      <c r="I48">
+        <v>0.01190530090106131</v>
+      </c>
+      <c r="J48">
+        <v>0.01091578280348884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.09366210191279734</v>
+        <v>-0.09074596784897038</v>
       </c>
       <c r="C50">
-        <v>-0.03856529763614793</v>
+        <v>0.02727446114035069</v>
       </c>
       <c r="D50">
-        <v>-0.03025111539316804</v>
+        <v>-0.02560377651533163</v>
       </c>
       <c r="E50">
-        <v>-0.01831602396881902</v>
+        <v>0.02621993399059249</v>
       </c>
       <c r="F50">
-        <v>0.008434500973886941</v>
+        <v>-0.006595769383213704</v>
       </c>
       <c r="G50">
-        <v>-0.04892399369894368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001782698252480458</v>
+      </c>
+      <c r="H50">
+        <v>0.03622996203560978</v>
+      </c>
+      <c r="I50">
+        <v>-0.002322001180901633</v>
+      </c>
+      <c r="J50">
+        <v>0.005636499600975723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.05499571366113571</v>
+        <v>-0.03882456457775268</v>
       </c>
       <c r="C51">
-        <v>0.02150731293377087</v>
+        <v>-0.001365761318213546</v>
       </c>
       <c r="D51">
-        <v>0.004047233963810731</v>
+        <v>0.0160817741543744</v>
       </c>
       <c r="E51">
-        <v>0.08224589990025322</v>
+        <v>0.008521815586876301</v>
       </c>
       <c r="F51">
-        <v>0.06465447541643034</v>
+        <v>0.09801647562469944</v>
       </c>
       <c r="G51">
-        <v>-0.0365291336150819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05386353829469716</v>
+      </c>
+      <c r="H51">
+        <v>0.05398109584588268</v>
+      </c>
+      <c r="I51">
+        <v>0.01978694835088536</v>
+      </c>
+      <c r="J51">
+        <v>0.04121258434139458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1423818867413592</v>
+        <v>-0.1261967125208844</v>
       </c>
       <c r="C53">
-        <v>-0.01378221941213476</v>
+        <v>0.03113978172901776</v>
       </c>
       <c r="D53">
-        <v>-0.04973089182042506</v>
+        <v>-0.007619323267178382</v>
       </c>
       <c r="E53">
-        <v>-0.0507430377769909</v>
+        <v>0.05324325484839468</v>
       </c>
       <c r="F53">
-        <v>0.009652050121438953</v>
+        <v>-0.04123517015347525</v>
       </c>
       <c r="G53">
-        <v>-0.03552481071889789</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02155823525535986</v>
+      </c>
+      <c r="H53">
+        <v>-0.002095666175208653</v>
+      </c>
+      <c r="I53">
+        <v>0.03998188904190841</v>
+      </c>
+      <c r="J53">
+        <v>0.03299873552741498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02665754067583571</v>
+        <v>-0.02541715511412396</v>
       </c>
       <c r="C54">
-        <v>-0.005480356009546619</v>
+        <v>0.0002714053913612724</v>
       </c>
       <c r="D54">
-        <v>-0.02496859341086794</v>
+        <v>-0.005606074680232157</v>
       </c>
       <c r="E54">
-        <v>0.03527768747250289</v>
+        <v>0.02634988452991427</v>
       </c>
       <c r="F54">
-        <v>0.0463837899742892</v>
+        <v>0.03537512734866051</v>
       </c>
       <c r="G54">
-        <v>0.005475045746981352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05043257647615243</v>
+      </c>
+      <c r="H54">
+        <v>0.04344997668226821</v>
+      </c>
+      <c r="I54">
+        <v>0.02895742429073113</v>
+      </c>
+      <c r="J54">
+        <v>-0.008571011279991785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1019282577993262</v>
+        <v>-0.1006202492178015</v>
       </c>
       <c r="C55">
-        <v>-0.001160302429861699</v>
+        <v>0.01402331546915032</v>
       </c>
       <c r="D55">
-        <v>-0.03596470944555551</v>
+        <v>-0.01854219027506487</v>
       </c>
       <c r="E55">
-        <v>-0.01212893826674665</v>
+        <v>0.03546314074884629</v>
       </c>
       <c r="F55">
-        <v>-0.0393178344461213</v>
+        <v>-0.02757722802751833</v>
       </c>
       <c r="G55">
-        <v>-0.001589872922577718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.008902041732015056</v>
+      </c>
+      <c r="H55">
+        <v>0.009542699843939228</v>
+      </c>
+      <c r="I55">
+        <v>0.01998006160743639</v>
+      </c>
+      <c r="J55">
+        <v>0.02766867691659703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1797046949118179</v>
+        <v>-0.167793135247712</v>
       </c>
       <c r="C56">
-        <v>0.01156494698258457</v>
+        <v>0.009400174181416487</v>
       </c>
       <c r="D56">
-        <v>-0.08582928613297705</v>
+        <v>-0.002443089287450411</v>
       </c>
       <c r="E56">
-        <v>-0.1026753027702469</v>
+        <v>0.0877576499669908</v>
       </c>
       <c r="F56">
-        <v>-0.07647489224806708</v>
+        <v>-0.08588764880873477</v>
       </c>
       <c r="G56">
-        <v>-0.02984020815102055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03174857368964976</v>
+      </c>
+      <c r="H56">
+        <v>-0.04578372059029814</v>
+      </c>
+      <c r="I56">
+        <v>0.03255770748569604</v>
+      </c>
+      <c r="J56">
+        <v>0.03698733379715068</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08896353807721132</v>
+        <v>-0.06739860212618042</v>
       </c>
       <c r="C57">
-        <v>-0.03045361864688415</v>
+        <v>0.03688540505048495</v>
       </c>
       <c r="D57">
-        <v>-0.03045089300184756</v>
+        <v>0.0008818238253748672</v>
       </c>
       <c r="E57">
-        <v>0.0417576950639722</v>
+        <v>0.009828746191555679</v>
       </c>
       <c r="F57">
-        <v>0.04220330268767319</v>
+        <v>0.065006215159018</v>
       </c>
       <c r="G57">
-        <v>-0.03388601210093983</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02560846160947393</v>
+      </c>
+      <c r="H57">
+        <v>0.03273444162491548</v>
+      </c>
+      <c r="I57">
+        <v>-0.008537450608841131</v>
+      </c>
+      <c r="J57">
+        <v>0.03674020398737487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1863439762115188</v>
+        <v>-0.207548211474142</v>
       </c>
       <c r="C58">
-        <v>-0.03404167786492401</v>
+        <v>0.1229516221644575</v>
       </c>
       <c r="D58">
-        <v>0.01538955059897033</v>
+        <v>0.03502529160066097</v>
       </c>
       <c r="E58">
-        <v>0.1257410401579553</v>
+        <v>-0.003489628928997386</v>
       </c>
       <c r="F58">
-        <v>-0.05944676489946204</v>
+        <v>0.2290183983405828</v>
       </c>
       <c r="G58">
-        <v>-0.06321090195111945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1714399667381807</v>
+      </c>
+      <c r="H58">
+        <v>0.3728697713760273</v>
+      </c>
+      <c r="I58">
+        <v>-0.18398893969016</v>
+      </c>
+      <c r="J58">
+        <v>-0.7532943754839184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.02050650789110057</v>
+        <v>-0.04203773488915735</v>
       </c>
       <c r="C59">
-        <v>0.195900951275081</v>
+        <v>-0.1624842665742159</v>
       </c>
       <c r="D59">
-        <v>0.006417623807961444</v>
+        <v>0.1152319035335952</v>
       </c>
       <c r="E59">
-        <v>0.0630399051189036</v>
+        <v>-0.0127070874154515</v>
       </c>
       <c r="F59">
-        <v>0.01372082881393633</v>
+        <v>0.07267016156355696</v>
       </c>
       <c r="G59">
-        <v>0.004467922581590273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.001702761573451084</v>
+      </c>
+      <c r="H59">
+        <v>-0.0242838743654838</v>
+      </c>
+      <c r="I59">
+        <v>0.06221153359932674</v>
+      </c>
+      <c r="J59">
+        <v>-0.01547334400215007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1936463970730456</v>
+        <v>-0.1848447175546779</v>
       </c>
       <c r="C60">
-        <v>0.08977781993391722</v>
+        <v>-0.02144370673333219</v>
       </c>
       <c r="D60">
-        <v>-0.001848147910456562</v>
+        <v>0.072478111238385</v>
       </c>
       <c r="E60">
-        <v>0.1882474794943428</v>
+        <v>0.01006872972514023</v>
       </c>
       <c r="F60">
-        <v>0.04876978084272344</v>
+        <v>0.2130740723225925</v>
       </c>
       <c r="G60">
-        <v>0.002785703634700429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06648977272474269</v>
+      </c>
+      <c r="H60">
+        <v>-0.2732568592157423</v>
+      </c>
+      <c r="I60">
+        <v>-0.09964995551769702</v>
+      </c>
+      <c r="J60">
+        <v>0.02520355457650782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04375025003331584</v>
+        <v>-0.03743112303114616</v>
       </c>
       <c r="C61">
-        <v>-0.01310660690644393</v>
+        <v>0.0234647621042042</v>
       </c>
       <c r="D61">
-        <v>-0.0007309967269638337</v>
+        <v>-0.01374990716892951</v>
       </c>
       <c r="E61">
-        <v>0.03837760381034514</v>
+        <v>0.00675699397522753</v>
       </c>
       <c r="F61">
-        <v>0.006835491288099934</v>
+        <v>0.03922878551649382</v>
       </c>
       <c r="G61">
-        <v>0.005173403902774867</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01129202455349602</v>
+      </c>
+      <c r="H61">
+        <v>-0.003357972760555921</v>
+      </c>
+      <c r="I61">
+        <v>-0.04089262280175539</v>
+      </c>
+      <c r="J61">
+        <v>0.02245042371910416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04239979329926752</v>
+        <v>-0.03109683758476841</v>
       </c>
       <c r="C63">
-        <v>-0.01382829597627695</v>
+        <v>0.01773527876164561</v>
       </c>
       <c r="D63">
-        <v>-0.01882148972955887</v>
+        <v>-0.007953255747707253</v>
       </c>
       <c r="E63">
-        <v>0.04325438345774753</v>
+        <v>0.01415670434528206</v>
       </c>
       <c r="F63">
-        <v>0.01551397684487101</v>
+        <v>0.0294125859839237</v>
       </c>
       <c r="G63">
-        <v>-0.01666688330643082</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01131836787936093</v>
+      </c>
+      <c r="H63">
+        <v>0.04914649760966924</v>
+      </c>
+      <c r="I63">
+        <v>0.03494419616472499</v>
+      </c>
+      <c r="J63">
+        <v>0.0293191065530225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07456413087549352</v>
+        <v>-0.05902563807669038</v>
       </c>
       <c r="C64">
-        <v>-0.0559443592583151</v>
+        <v>0.03378497382416923</v>
       </c>
       <c r="D64">
-        <v>-0.06314938468248775</v>
+        <v>-0.03498849157298712</v>
       </c>
       <c r="E64">
-        <v>0.05611643564720339</v>
+        <v>0.04540515983158813</v>
       </c>
       <c r="F64">
-        <v>0.04245122582395825</v>
+        <v>0.04976141039903081</v>
       </c>
       <c r="G64">
-        <v>0.05155497698889609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05381214996734111</v>
+      </c>
+      <c r="H64">
+        <v>-0.01092456906697443</v>
+      </c>
+      <c r="I64">
+        <v>0.03562097197613648</v>
+      </c>
+      <c r="J64">
+        <v>0.0999332409303651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.020100476865959</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007751124151856004</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01177065079631286</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006750352920144715</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0006319100013652989</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02135976214338843</v>
+      </c>
+      <c r="H65">
+        <v>-0.006172615354917378</v>
+      </c>
+      <c r="I65">
+        <v>-0.01661240368482877</v>
+      </c>
+      <c r="J65">
+        <v>0.003737497358786991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.08849173285971933</v>
+        <v>-0.0698493967109399</v>
       </c>
       <c r="C66">
-        <v>-0.03501005990238291</v>
+        <v>0.05397857342720028</v>
       </c>
       <c r="D66">
-        <v>-0.03890763777498319</v>
+        <v>-0.013770349028167</v>
       </c>
       <c r="E66">
-        <v>0.07944724959793348</v>
+        <v>0.04747934722748789</v>
       </c>
       <c r="F66">
-        <v>0.03694289124007359</v>
+        <v>0.06937491736299373</v>
       </c>
       <c r="G66">
-        <v>0.002752744971468014</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01561323098166214</v>
+      </c>
+      <c r="H66">
+        <v>0.0001603362878335634</v>
+      </c>
+      <c r="I66">
+        <v>-0.03480397090741057</v>
+      </c>
+      <c r="J66">
+        <v>0.07568589109866558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.0610740989343783</v>
+        <v>-0.04689946432889706</v>
       </c>
       <c r="C67">
-        <v>0.01172568334068608</v>
+        <v>-0.004456277767151995</v>
       </c>
       <c r="D67">
-        <v>-0.01214828704143114</v>
+        <v>0.005607590014770182</v>
       </c>
       <c r="E67">
-        <v>0.01929512477964016</v>
+        <v>0.01033404402064589</v>
       </c>
       <c r="F67">
-        <v>-0.001213243487211956</v>
+        <v>0.03692654230170173</v>
       </c>
       <c r="G67">
-        <v>0.02166256536010062</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03474790673033289</v>
+      </c>
+      <c r="H67">
+        <v>-0.00597483494240758</v>
+      </c>
+      <c r="I67">
+        <v>-0.03826101183879078</v>
+      </c>
+      <c r="J67">
+        <v>0.009664713114315989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02935557445310968</v>
+        <v>-0.04906705567762816</v>
       </c>
       <c r="C68">
-        <v>0.2459061635196316</v>
+        <v>-0.1970757376119621</v>
       </c>
       <c r="D68">
-        <v>0.02876682399423956</v>
+        <v>0.1341245422001358</v>
       </c>
       <c r="E68">
-        <v>0.04558069793756612</v>
+        <v>-0.02979510166997097</v>
       </c>
       <c r="F68">
-        <v>0.01803536007903495</v>
+        <v>0.05445875935303167</v>
       </c>
       <c r="G68">
-        <v>-0.01972155663143373</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004097420782816844</v>
+      </c>
+      <c r="H68">
+        <v>-0.01374396951501776</v>
+      </c>
+      <c r="I68">
+        <v>0.1655778318666711</v>
+      </c>
+      <c r="J68">
+        <v>-0.0785814422499512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0708655126599983</v>
+        <v>-0.07259853313581179</v>
       </c>
       <c r="C69">
-        <v>-0.01768865171220276</v>
+        <v>0.02022156055519481</v>
       </c>
       <c r="D69">
-        <v>-0.02716900988077638</v>
+        <v>-0.003269478493827531</v>
       </c>
       <c r="E69">
-        <v>-0.01411552622184856</v>
+        <v>0.03125262191971176</v>
       </c>
       <c r="F69">
-        <v>0.01052942479677643</v>
+        <v>-0.002288972993237116</v>
       </c>
       <c r="G69">
-        <v>-0.02580213100450733</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02520811876079875</v>
+      </c>
+      <c r="H69">
+        <v>0.0271950529840562</v>
+      </c>
+      <c r="I69">
+        <v>-0.002449987357885808</v>
+      </c>
+      <c r="J69">
+        <v>0.02704496447978558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.02163524045249121</v>
+        <v>-0.04812807498775478</v>
       </c>
       <c r="C71">
-        <v>0.2810283508163668</v>
+        <v>-0.2115415990452667</v>
       </c>
       <c r="D71">
-        <v>0.03444834421523298</v>
+        <v>0.1495549687193401</v>
       </c>
       <c r="E71">
-        <v>0.07703215459682573</v>
+        <v>-0.05208891832036449</v>
       </c>
       <c r="F71">
-        <v>0.02820923136447592</v>
+        <v>0.07848846969655789</v>
       </c>
       <c r="G71">
-        <v>-0.01877362646824421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01659206887492672</v>
+      </c>
+      <c r="H71">
+        <v>-0.02112496711340776</v>
+      </c>
+      <c r="I71">
+        <v>0.1378057569633806</v>
+      </c>
+      <c r="J71">
+        <v>-0.04188601133168664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1224107419086206</v>
+        <v>-0.127058778733466</v>
       </c>
       <c r="C72">
-        <v>0.003402075753944309</v>
+        <v>0.02767975595600276</v>
       </c>
       <c r="D72">
-        <v>-0.04794708297702436</v>
+        <v>-0.004799856048736778</v>
       </c>
       <c r="E72">
-        <v>0.08815886734052472</v>
+        <v>0.06323274789727233</v>
       </c>
       <c r="F72">
-        <v>-0.02174618031092094</v>
+        <v>0.08253133550502356</v>
       </c>
       <c r="G72">
-        <v>-0.001926852921077613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03940967321436522</v>
+      </c>
+      <c r="H72">
+        <v>-0.02069247040193452</v>
+      </c>
+      <c r="I72">
+        <v>-0.07989890886237218</v>
+      </c>
+      <c r="J72">
+        <v>-0.08609235107765875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2948378047209146</v>
+        <v>-0.2679018342804873</v>
       </c>
       <c r="C73">
-        <v>0.1689779367153721</v>
+        <v>-0.02762630231698073</v>
       </c>
       <c r="D73">
-        <v>0.06746971324206708</v>
+        <v>0.1254229812305757</v>
       </c>
       <c r="E73">
-        <v>0.3288067315810668</v>
+        <v>-0.03216480865907285</v>
       </c>
       <c r="F73">
-        <v>0.01077014857218953</v>
+        <v>0.3157815121771514</v>
       </c>
       <c r="G73">
-        <v>0.05482155114728989</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1689641741734331</v>
+      </c>
+      <c r="H73">
+        <v>-0.4626133296792722</v>
+      </c>
+      <c r="I73">
+        <v>-0.2895010782631649</v>
+      </c>
+      <c r="J73">
+        <v>0.04609957902121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1620944019125177</v>
+        <v>-0.1509524920312358</v>
       </c>
       <c r="C74">
-        <v>-0.004128523465846476</v>
+        <v>0.02611542200334595</v>
       </c>
       <c r="D74">
-        <v>-0.04596773335896609</v>
+        <v>0.003866249964075426</v>
       </c>
       <c r="E74">
-        <v>-0.03211496092011391</v>
+        <v>0.0511680123706298</v>
       </c>
       <c r="F74">
-        <v>-0.04112229817419941</v>
+        <v>-0.0546343964651845</v>
       </c>
       <c r="G74">
-        <v>-0.06719437977809427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01891680856157973</v>
+      </c>
+      <c r="H74">
+        <v>-0.03095051232772569</v>
+      </c>
+      <c r="I74">
+        <v>0.0220867230928233</v>
+      </c>
+      <c r="J74">
+        <v>0.08644836123542378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2339073254018657</v>
+        <v>-0.2434674518570744</v>
       </c>
       <c r="C75">
-        <v>-0.003275783374571562</v>
+        <v>0.03050744327886767</v>
       </c>
       <c r="D75">
-        <v>-0.07352785452660732</v>
+        <v>0.02030869975042788</v>
       </c>
       <c r="E75">
-        <v>-0.1261978266330633</v>
+        <v>0.1056353580600248</v>
       </c>
       <c r="F75">
-        <v>-0.0119385549093597</v>
+        <v>-0.1416244696840155</v>
       </c>
       <c r="G75">
-        <v>-0.05045673283957897</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.003955943322085395</v>
+      </c>
+      <c r="H75">
+        <v>-0.02417170808337033</v>
+      </c>
+      <c r="I75">
+        <v>0.0838716802044194</v>
+      </c>
+      <c r="J75">
+        <v>0.01729722681326082</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2467913195594225</v>
+        <v>-0.2676890613867424</v>
       </c>
       <c r="C76">
-        <v>0.01037177060342022</v>
+        <v>0.001179889824986111</v>
       </c>
       <c r="D76">
-        <v>-0.1118016065587685</v>
+        <v>-0.009203442853507507</v>
       </c>
       <c r="E76">
-        <v>-0.1342353566212264</v>
+        <v>0.1319238288002772</v>
       </c>
       <c r="F76">
-        <v>-0.0663770912822928</v>
+        <v>-0.1892949300929167</v>
       </c>
       <c r="G76">
-        <v>-0.04775990313482481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05823375405678386</v>
+      </c>
+      <c r="H76">
+        <v>-0.04840926964008206</v>
+      </c>
+      <c r="I76">
+        <v>0.05115610236813796</v>
+      </c>
+      <c r="J76">
+        <v>0.06385137065310086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1354139950822165</v>
+        <v>-0.128021213649534</v>
       </c>
       <c r="C77">
-        <v>-0.06514072158562959</v>
+        <v>0.06366807117954063</v>
       </c>
       <c r="D77">
-        <v>0.03188342932871401</v>
+        <v>-0.0254949864326573</v>
       </c>
       <c r="E77">
-        <v>0.1543243246232626</v>
+        <v>-0.02689476453858683</v>
       </c>
       <c r="F77">
-        <v>0.01726257508345409</v>
+        <v>0.1613622491472582</v>
       </c>
       <c r="G77">
-        <v>0.04781784957341283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.008163709042193311</v>
+      </c>
+      <c r="H77">
+        <v>0.2252794475336973</v>
+      </c>
+      <c r="I77">
+        <v>0.2485349798470426</v>
+      </c>
+      <c r="J77">
+        <v>0.09472797366913994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08589470914317567</v>
+        <v>-0.07851566407461133</v>
       </c>
       <c r="C78">
-        <v>-0.05541173747489338</v>
+        <v>0.06340412388812514</v>
       </c>
       <c r="D78">
-        <v>0.009286869202640966</v>
+        <v>-0.04202498497434055</v>
       </c>
       <c r="E78">
-        <v>0.05395743506667541</v>
+        <v>0.01239700489924026</v>
       </c>
       <c r="F78">
-        <v>0.01167133973714266</v>
+        <v>0.07271141886528601</v>
       </c>
       <c r="G78">
-        <v>-0.01129879753933427</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01059550278348865</v>
+      </c>
+      <c r="H78">
+        <v>0.02016626686515422</v>
+      </c>
+      <c r="I78">
+        <v>0.03020497905332605</v>
+      </c>
+      <c r="J78">
+        <v>0.04505525726215018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05587354153389683</v>
+        <v>-0.1490093222349787</v>
       </c>
       <c r="C80">
-        <v>-0.02620136934579996</v>
+        <v>-0.5246952320136262</v>
       </c>
       <c r="D80">
-        <v>0.09130699815610945</v>
+        <v>-0.8199956208466795</v>
       </c>
       <c r="E80">
-        <v>-0.03700349124603505</v>
+        <v>-0.05421063032823707</v>
       </c>
       <c r="F80">
-        <v>-0.4467343364562792</v>
+        <v>0.04839134924169506</v>
       </c>
       <c r="G80">
-        <v>0.8535600682454485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0470879355626376</v>
+      </c>
+      <c r="H80">
+        <v>-0.05207490343521676</v>
+      </c>
+      <c r="I80">
+        <v>-0.03461239222204551</v>
+      </c>
+      <c r="J80">
+        <v>-0.09594618667741561</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.163036768528111</v>
+        <v>-0.1794609602158951</v>
       </c>
       <c r="C81">
-        <v>0.005557875010391474</v>
+        <v>0.003723391848342933</v>
       </c>
       <c r="D81">
-        <v>-0.06389525496910027</v>
+        <v>0.009409973141797747</v>
       </c>
       <c r="E81">
-        <v>-0.1580150081915529</v>
+        <v>0.08485570169775045</v>
       </c>
       <c r="F81">
-        <v>-0.0650589479134861</v>
+        <v>-0.156912341933425</v>
       </c>
       <c r="G81">
-        <v>-0.07147850412726711</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03220944094001153</v>
+      </c>
+      <c r="H81">
+        <v>-0.01206374900742173</v>
+      </c>
+      <c r="I81">
+        <v>0.06030330879989868</v>
+      </c>
+      <c r="J81">
+        <v>-0.0008791095107547085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09429386024200268</v>
+        <v>-0.07039373651289865</v>
       </c>
       <c r="C83">
-        <v>-0.06744716438189395</v>
+        <v>0.05281222862631484</v>
       </c>
       <c r="D83">
-        <v>0.06458054177052497</v>
+        <v>-0.01358194871583037</v>
       </c>
       <c r="E83">
-        <v>0.0160234551279369</v>
+        <v>-0.03517208090530721</v>
       </c>
       <c r="F83">
-        <v>0.06233430803035173</v>
+        <v>0.04499902002647985</v>
       </c>
       <c r="G83">
-        <v>-0.005324189604340157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05724666921185199</v>
+      </c>
+      <c r="H83">
+        <v>0.02675586675174091</v>
+      </c>
+      <c r="I83">
+        <v>0.0215159463074042</v>
+      </c>
+      <c r="J83">
+        <v>0.07721254820102529</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2370061415588334</v>
+        <v>-0.2506695344305438</v>
       </c>
       <c r="C85">
-        <v>-0.05376913114733144</v>
+        <v>0.04498403006234538</v>
       </c>
       <c r="D85">
-        <v>-0.06636581066282944</v>
+        <v>-0.01459957093267414</v>
       </c>
       <c r="E85">
-        <v>-0.1692255760398957</v>
+        <v>0.09892425967543614</v>
       </c>
       <c r="F85">
-        <v>-0.05331480749970049</v>
+        <v>-0.1890275781461849</v>
       </c>
       <c r="G85">
-        <v>-0.03055740866523989</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0103185091883605</v>
+      </c>
+      <c r="H85">
+        <v>0.01765138924607192</v>
+      </c>
+      <c r="I85">
+        <v>0.05410168496829675</v>
+      </c>
+      <c r="J85">
+        <v>0.07002900633408776</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04015262734769808</v>
+        <v>-0.02589780583756376</v>
       </c>
       <c r="C86">
-        <v>-0.0576718938612452</v>
+        <v>0.05393671130548011</v>
       </c>
       <c r="D86">
-        <v>-0.02150795747869581</v>
+        <v>-0.03244069836525536</v>
       </c>
       <c r="E86">
-        <v>0.06358321960429308</v>
+        <v>0.01390245683727826</v>
       </c>
       <c r="F86">
-        <v>-0.002000924316772096</v>
+        <v>0.06538729236057278</v>
       </c>
       <c r="G86">
-        <v>-0.01658017724772878</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00610770571987284</v>
+      </c>
+      <c r="H86">
+        <v>0.06732941400573159</v>
+      </c>
+      <c r="I86">
+        <v>0.02554950241437529</v>
+      </c>
+      <c r="J86">
+        <v>0.03638468781252855</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02882695508681478</v>
+        <v>-0.03363358943146286</v>
       </c>
       <c r="C87">
-        <v>0.05362437866009889</v>
+        <v>-0.008878241015821461</v>
       </c>
       <c r="D87">
-        <v>0.001585029316582935</v>
+        <v>0.008347382669729685</v>
       </c>
       <c r="E87">
-        <v>0.09391474630809372</v>
+        <v>0.005422950963843876</v>
       </c>
       <c r="F87">
-        <v>-0.01989185964286184</v>
+        <v>0.09935424229966219</v>
       </c>
       <c r="G87">
-        <v>-0.01209813210937433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02397254674633555</v>
+      </c>
+      <c r="H87">
+        <v>0.0169874782482748</v>
+      </c>
+      <c r="I87">
+        <v>-0.01203103089537922</v>
+      </c>
+      <c r="J87">
+        <v>0.01925596133500911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03835280011801221</v>
+        <v>-0.02975153937896324</v>
       </c>
       <c r="C88">
-        <v>-0.03310594784108348</v>
+        <v>0.01339186670866141</v>
       </c>
       <c r="D88">
-        <v>-0.008216089024963028</v>
+        <v>-0.01966605823944223</v>
       </c>
       <c r="E88">
-        <v>-0.006189948183656651</v>
+        <v>0.01112974736802241</v>
       </c>
       <c r="F88">
-        <v>-0.01056617072767656</v>
+        <v>-0.01370235102327321</v>
       </c>
       <c r="G88">
-        <v>-0.007492610244580371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03747254389386551</v>
+      </c>
+      <c r="H88">
+        <v>0.03624787045437802</v>
+      </c>
+      <c r="I88">
+        <v>-0.02140403784522546</v>
+      </c>
+      <c r="J88">
+        <v>0.02608267320375275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02916243593546569</v>
+        <v>-0.0706146615436215</v>
       </c>
       <c r="C89">
-        <v>0.3870848737589024</v>
+        <v>-0.3089586009050547</v>
       </c>
       <c r="D89">
-        <v>0.1091566413265395</v>
+        <v>0.2290503089408865</v>
       </c>
       <c r="E89">
-        <v>0.006233378898116327</v>
+        <v>-0.07340075243731811</v>
       </c>
       <c r="F89">
-        <v>0.0299814664344749</v>
+        <v>0.03790888078852592</v>
       </c>
       <c r="G89">
-        <v>-0.02204625603072962</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0356902786077038</v>
+      </c>
+      <c r="H89">
+        <v>0.04883889868873965</v>
+      </c>
+      <c r="I89">
+        <v>0.2526632634735227</v>
+      </c>
+      <c r="J89">
+        <v>-0.06981788887231516</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02502399762100963</v>
+        <v>-0.04945908281482744</v>
       </c>
       <c r="C90">
-        <v>0.3020459491059768</v>
+        <v>-0.2747865139307842</v>
       </c>
       <c r="D90">
-        <v>0.05792387038888912</v>
+        <v>0.1826678946064894</v>
       </c>
       <c r="E90">
-        <v>0.04825295922787505</v>
+        <v>-0.05858655327080033</v>
       </c>
       <c r="F90">
-        <v>0.04005629505229869</v>
+        <v>0.03699994646432492</v>
       </c>
       <c r="G90">
-        <v>-0.01672615922421407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02180758097579634</v>
+      </c>
+      <c r="H90">
+        <v>0.009252110775958991</v>
+      </c>
+      <c r="I90">
+        <v>0.2207251617087751</v>
+      </c>
+      <c r="J90">
+        <v>-0.05072245928269407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2733036478649329</v>
+        <v>-0.2922060664998308</v>
       </c>
       <c r="C91">
-        <v>-0.04600127496116188</v>
+        <v>0.04347630319909772</v>
       </c>
       <c r="D91">
-        <v>-0.07628696201944381</v>
+        <v>-0.00306292109625455</v>
       </c>
       <c r="E91">
-        <v>-0.2690721504421327</v>
+        <v>0.09343730897296991</v>
       </c>
       <c r="F91">
-        <v>-0.07120845667348062</v>
+        <v>-0.2801216001362246</v>
       </c>
       <c r="G91">
-        <v>-0.01489056787365146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02937898972034246</v>
+      </c>
+      <c r="H91">
+        <v>-0.01415801052296753</v>
+      </c>
+      <c r="I91">
+        <v>0.09478573472189505</v>
+      </c>
+      <c r="J91">
+        <v>0.04549863185891431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05634400074687552</v>
+        <v>-0.1104023203928429</v>
       </c>
       <c r="C92">
-        <v>0.4006410721090559</v>
+        <v>-0.3695259127338398</v>
       </c>
       <c r="D92">
-        <v>0.1764466592783673</v>
+        <v>0.2189677593519371</v>
       </c>
       <c r="E92">
-        <v>-0.08705861893870913</v>
+        <v>-0.09603038982611328</v>
       </c>
       <c r="F92">
-        <v>-0.08239314099391853</v>
+        <v>-0.1270489001376715</v>
       </c>
       <c r="G92">
-        <v>0.04553052717441698</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07860149758351866</v>
+      </c>
+      <c r="H92">
+        <v>0.4468977792743634</v>
+      </c>
+      <c r="I92">
+        <v>-0.659610289992552</v>
+      </c>
+      <c r="J92">
+        <v>0.3269830820421102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01627378426248909</v>
+        <v>-0.05638249807194125</v>
       </c>
       <c r="C93">
-        <v>0.3659367434435428</v>
+        <v>-0.3250783385535373</v>
       </c>
       <c r="D93">
-        <v>0.08943454389244859</v>
+        <v>0.2334051374061437</v>
       </c>
       <c r="E93">
-        <v>-0.02464200996876813</v>
+        <v>-0.09469913948798739</v>
       </c>
       <c r="F93">
-        <v>-0.004825867450917865</v>
+        <v>0.005580506488428535</v>
       </c>
       <c r="G93">
-        <v>0.02070109317351431</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03394250807715718</v>
+      </c>
+      <c r="H93">
+        <v>-0.01971064438150636</v>
+      </c>
+      <c r="I93">
+        <v>0.1571055868252952</v>
+      </c>
+      <c r="J93">
+        <v>-0.07281223507240522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2780110397303618</v>
+        <v>-0.3013989140964764</v>
       </c>
       <c r="C94">
-        <v>0.0786108969003574</v>
+        <v>-0.002366051141853249</v>
       </c>
       <c r="D94">
-        <v>-0.05317585876257213</v>
+        <v>0.04799856454820402</v>
       </c>
       <c r="E94">
-        <v>-0.3758403578101218</v>
+        <v>0.1311111695923084</v>
       </c>
       <c r="F94">
-        <v>-0.3426171967306242</v>
+        <v>-0.3436027278700391</v>
       </c>
       <c r="G94">
-        <v>-0.2056692028049111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2048353857277334</v>
+      </c>
+      <c r="H94">
+        <v>0.1193820072890022</v>
+      </c>
+      <c r="I94">
+        <v>0.02365759629684133</v>
+      </c>
+      <c r="J94">
+        <v>-0.1470638719671102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1894314721633939</v>
+        <v>-0.1351437185887653</v>
       </c>
       <c r="C95">
-        <v>0.01186049662007207</v>
+        <v>0.0803918493518947</v>
       </c>
       <c r="D95">
-        <v>0.002231167460685769</v>
+        <v>0.06657921813800431</v>
       </c>
       <c r="E95">
-        <v>-0.3588769874050315</v>
+        <v>0.03623551899759754</v>
       </c>
       <c r="F95">
-        <v>0.767459131946883</v>
+        <v>-0.08257776020656386</v>
       </c>
       <c r="G95">
-        <v>0.3846445648677419</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8989210892708772</v>
+      </c>
+      <c r="H95">
+        <v>-0.1569027020174815</v>
+      </c>
+      <c r="I95">
+        <v>-0.106202084015411</v>
+      </c>
+      <c r="J95">
+        <v>-0.2510560868557293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2269763350511637</v>
+        <v>-0.2054113695069564</v>
       </c>
       <c r="C98">
-        <v>0.109489361081203</v>
+        <v>-0.0243214095204232</v>
       </c>
       <c r="D98">
-        <v>0.04013326873949284</v>
+        <v>0.09004105377090864</v>
       </c>
       <c r="E98">
-        <v>0.08544334987566658</v>
+        <v>-0.02904714054908799</v>
       </c>
       <c r="F98">
-        <v>0.04891470067471652</v>
+        <v>0.1668981584826266</v>
       </c>
       <c r="G98">
-        <v>-0.01161277539297246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07658075155925784</v>
+      </c>
+      <c r="H98">
+        <v>-0.3182264626649521</v>
+      </c>
+      <c r="I98">
+        <v>-0.1670188698120208</v>
+      </c>
+      <c r="J98">
+        <v>-0.02516490236876816</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02256177517345465</v>
+        <v>-0.01684839230872087</v>
       </c>
       <c r="C101">
-        <v>-0.02413368837157604</v>
+        <v>0.02377750609982296</v>
       </c>
       <c r="D101">
-        <v>-0.0318398295652314</v>
+        <v>-0.02036769290338431</v>
       </c>
       <c r="E101">
-        <v>0.0337278757324803</v>
+        <v>0.03347151725507348</v>
       </c>
       <c r="F101">
-        <v>0.01581460822518645</v>
+        <v>0.06369249581203056</v>
       </c>
       <c r="G101">
-        <v>-0.007238035881861875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01473384950936967</v>
+      </c>
+      <c r="H101">
+        <v>0.1108080239711032</v>
+      </c>
+      <c r="I101">
+        <v>-0.05341389995771917</v>
+      </c>
+      <c r="J101">
+        <v>-0.1127336343077116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1141706018727965</v>
+        <v>-0.121322131317185</v>
       </c>
       <c r="C102">
-        <v>-0.02097409111148809</v>
+        <v>0.01581803186698915</v>
       </c>
       <c r="D102">
-        <v>-0.041455931379944</v>
+        <v>-0.0104259930578645</v>
       </c>
       <c r="E102">
-        <v>-0.09189365099303044</v>
+        <v>0.05524152735766315</v>
       </c>
       <c r="F102">
-        <v>-0.00962606845429788</v>
+        <v>-0.1008213628159585</v>
       </c>
       <c r="G102">
-        <v>0.01186523717423516</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01333827586043253</v>
+      </c>
+      <c r="H102">
+        <v>-0.01825508353479614</v>
+      </c>
+      <c r="I102">
+        <v>0.05968142631400741</v>
+      </c>
+      <c r="J102">
+        <v>0.03735879472509841</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01618237280166025</v>
+        <v>-0.03154890950606307</v>
       </c>
       <c r="C103">
-        <v>-0.0034849246346581</v>
+        <v>0.002178253311586916</v>
       </c>
       <c r="D103">
-        <v>-0.01414004957948923</v>
+        <v>-0.01024543344762973</v>
       </c>
       <c r="E103">
-        <v>-0.02374640168207665</v>
+        <v>0.02124268632204209</v>
       </c>
       <c r="F103">
-        <v>-0.004800570828313315</v>
+        <v>-0.02716385517223093</v>
       </c>
       <c r="G103">
-        <v>-0.0124321800132908</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01118505113597395</v>
+      </c>
+      <c r="H103">
+        <v>0.01304163150553999</v>
+      </c>
+      <c r="I103">
+        <v>0.02554844908890002</v>
+      </c>
+      <c r="J103">
+        <v>0.005020955049286836</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
